--- a/contratos/contratos-10-2018.xlsx
+++ b/contratos/contratos-10-2018.xlsx
@@ -937,7 +937,7 @@
     <t>RIQUELME SERGIO OMAR RAMON</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>SCHIERLOH STELLA MARIS</t>
@@ -979,7 +979,7 @@
     <t>RESTAURANT LA DELFINA S.R.L.</t>
   </si>
   <si>
-    <t>BOFFELLI, MARIA INES</t>
+    <t>BOFFELLI. MARIA INES</t>
   </si>
   <si>
     <t>RODE NELSON FEDERICO</t>
@@ -1006,7 +1006,7 @@
     <t>MARCOLIN PABLO ANDRES</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -1123,7 +1123,7 @@
     <t>NICHAJEW VLADIMIR ALEJANDRO</t>
   </si>
   <si>
-    <t>PARPAGNOLI, PEDRO RICARDO</t>
+    <t>PARPAGNOLI. PEDRO RICARDO</t>
   </si>
   <si>
     <t>RADIO MEDIO DE COMUNICACION S.A.</t>
@@ -1147,7 +1147,7 @@
     <t>SANDOVAL GRISELDA LINA</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>ARDETI GUSTAVO EMANUEL</t>
@@ -1714,697 +1714,697 @@
     <t>113</t>
   </si>
   <si>
-    <t>7.440,00</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>31.000,00</t>
-  </si>
-  <si>
-    <t>75.000,00</t>
-  </si>
-  <si>
-    <t>119.800,00</t>
-  </si>
-  <si>
-    <t>37.000,00</t>
-  </si>
-  <si>
-    <t>79.000,00</t>
-  </si>
-  <si>
-    <t>259.000,00</t>
-  </si>
-  <si>
-    <t>41.000,00</t>
-  </si>
-  <si>
-    <t>85.120,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>1.182.276,48</t>
-  </si>
-  <si>
-    <t>440,00</t>
-  </si>
-  <si>
-    <t>104.028,00</t>
-  </si>
-  <si>
-    <t>14.400,00</t>
-  </si>
-  <si>
-    <t>11.000,00</t>
-  </si>
-  <si>
-    <t>572,00</t>
-  </si>
-  <si>
-    <t>19.660,00</t>
-  </si>
-  <si>
-    <t>742.013,82</t>
-  </si>
-  <si>
-    <t>1.180.202,83</t>
-  </si>
-  <si>
-    <t>26.770,00</t>
-  </si>
-  <si>
-    <t>40.614,68</t>
-  </si>
-  <si>
-    <t>224.441,30</t>
-  </si>
-  <si>
-    <t>11.040,00</t>
-  </si>
-  <si>
-    <t>229.892,80</t>
-  </si>
-  <si>
-    <t>7.544,20</t>
-  </si>
-  <si>
-    <t>2.640,00</t>
-  </si>
-  <si>
-    <t>46.837,96</t>
-  </si>
-  <si>
-    <t>6.300,00</t>
-  </si>
-  <si>
-    <t>5.162,80</t>
-  </si>
-  <si>
-    <t>51.992,08</t>
-  </si>
-  <si>
-    <t>735,00</t>
-  </si>
-  <si>
-    <t>83.505,02</t>
-  </si>
-  <si>
-    <t>39.060,00</t>
-  </si>
-  <si>
-    <t>21.747,00</t>
-  </si>
-  <si>
-    <t>35.930,00</t>
-  </si>
-  <si>
-    <t>1.345,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>6.580,00</t>
-  </si>
-  <si>
-    <t>19.000,00</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>165.560,00</t>
-  </si>
-  <si>
-    <t>43,72</t>
-  </si>
-  <si>
-    <t>181.855,01</t>
-  </si>
-  <si>
-    <t>45.638,19</t>
-  </si>
-  <si>
-    <t>1.320,00</t>
-  </si>
-  <si>
-    <t>12.149,00</t>
-  </si>
-  <si>
-    <t>10.111,98</t>
-  </si>
-  <si>
-    <t>2.292,00</t>
-  </si>
-  <si>
-    <t>1.912.725,00</t>
-  </si>
-  <si>
-    <t>1.143,36</t>
-  </si>
-  <si>
-    <t>5.950,00</t>
-  </si>
-  <si>
-    <t>239.817,97</t>
-  </si>
-  <si>
-    <t>2.280,00</t>
-  </si>
-  <si>
-    <t>3.250,00</t>
-  </si>
-  <si>
-    <t>22.522,35</t>
-  </si>
-  <si>
-    <t>10.400,00</t>
-  </si>
-  <si>
-    <t>3.005,20</t>
-  </si>
-  <si>
-    <t>6.920,00</t>
-  </si>
-  <si>
-    <t>520,00</t>
-  </si>
-  <si>
-    <t>7.860,00</t>
-  </si>
-  <si>
-    <t>10.345,50</t>
-  </si>
-  <si>
-    <t>345,00</t>
-  </si>
-  <si>
-    <t>23.147,93</t>
-  </si>
-  <si>
-    <t>327,22</t>
-  </si>
-  <si>
-    <t>11.100,00</t>
-  </si>
-  <si>
-    <t>276.942,98</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>95,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>2.540,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>625,00</t>
-  </si>
-  <si>
-    <t>13.176,52</t>
-  </si>
-  <si>
-    <t>11.228,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>11.720,00</t>
-  </si>
-  <si>
-    <t>44.641,36</t>
-  </si>
-  <si>
-    <t>25.400,00</t>
-  </si>
-  <si>
-    <t>640.940,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>27.500,00</t>
-  </si>
-  <si>
-    <t>18.750,00</t>
-  </si>
-  <si>
-    <t>9.800,00</t>
-  </si>
-  <si>
-    <t>23.644,00</t>
-  </si>
-  <si>
-    <t>64.750,00</t>
-  </si>
-  <si>
-    <t>1.783,72</t>
-  </si>
-  <si>
-    <t>13.377,00</t>
-  </si>
-  <si>
-    <t>1.142,20</t>
-  </si>
-  <si>
-    <t>1.907,02</t>
-  </si>
-  <si>
-    <t>995,00</t>
-  </si>
-  <si>
-    <t>9.030,00</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>46.610,00</t>
-  </si>
-  <si>
-    <t>6.900,00</t>
-  </si>
-  <si>
-    <t>12.100,00</t>
-  </si>
-  <si>
-    <t>11.700,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>48.030,00</t>
-  </si>
-  <si>
-    <t>790,00</t>
-  </si>
-  <si>
-    <t>197.178,60</t>
-  </si>
-  <si>
-    <t>529.000,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>6.165,00</t>
-  </si>
-  <si>
-    <t>8.530,00</t>
-  </si>
-  <si>
-    <t>1.033,05</t>
-  </si>
-  <si>
-    <t>4.194,00</t>
-  </si>
-  <si>
-    <t>12,00</t>
-  </si>
-  <si>
-    <t>35.421,08</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>1.310,00</t>
-  </si>
-  <si>
-    <t>11.880,00</t>
-  </si>
-  <si>
-    <t>9.350,00</t>
-  </si>
-  <si>
-    <t>8.940,00</t>
-  </si>
-  <si>
-    <t>4.062,00</t>
-  </si>
-  <si>
-    <t>1.380,00</t>
-  </si>
-  <si>
-    <t>13.443,00</t>
-  </si>
-  <si>
-    <t>6.100,00</t>
-  </si>
-  <si>
-    <t>4.033,00</t>
-  </si>
-  <si>
-    <t>54.382,71</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>915,00</t>
-  </si>
-  <si>
-    <t>680,00</t>
-  </si>
-  <si>
-    <t>9.760,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>2.860,00</t>
-  </si>
-  <si>
-    <t>1.350,00</t>
-  </si>
-  <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>6.056,00</t>
-  </si>
-  <si>
-    <t>10.850,00</t>
-  </si>
-  <si>
-    <t>330,00</t>
-  </si>
-  <si>
-    <t>12.080,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>10.200,00</t>
-  </si>
-  <si>
-    <t>10,87</t>
-  </si>
-  <si>
-    <t>5.080,00</t>
-  </si>
-  <si>
-    <t>44.056,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>54.000,00</t>
-  </si>
-  <si>
-    <t>27.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>81.112,00</t>
-  </si>
-  <si>
-    <t>31.200,00</t>
-  </si>
-  <si>
-    <t>51.000,00</t>
-  </si>
-  <si>
-    <t>7.078,04</t>
-  </si>
-  <si>
-    <t>3.491,20</t>
-  </si>
-  <si>
-    <t>8.328,10</t>
-  </si>
-  <si>
-    <t>27.374,00</t>
-  </si>
-  <si>
-    <t>8.100,04</t>
-  </si>
-  <si>
-    <t>3.128,00</t>
-  </si>
-  <si>
-    <t>24.562,30</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>12.500,00</t>
-  </si>
-  <si>
-    <t>22.977,40</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>50.576,71</t>
-  </si>
-  <si>
-    <t>4.860,00</t>
-  </si>
-  <si>
-    <t>15.897,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>13.900,00</t>
-  </si>
-  <si>
-    <t>28.592,00</t>
-  </si>
-  <si>
-    <t>4.600,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>16.550,00</t>
-  </si>
-  <si>
-    <t>17.280,00</t>
-  </si>
-  <si>
-    <t>270,00</t>
-  </si>
-  <si>
-    <t>10.131,00</t>
-  </si>
-  <si>
-    <t>47.030,00</t>
-  </si>
-  <si>
-    <t>21.644,00</t>
-  </si>
-  <si>
-    <t>1.367,50</t>
-  </si>
-  <si>
-    <t>17.711,50</t>
-  </si>
-  <si>
-    <t>75,00</t>
-  </si>
-  <si>
-    <t>5.232,42</t>
-  </si>
-  <si>
-    <t>18.401,94</t>
-  </si>
-  <si>
-    <t>1.423,30</t>
-  </si>
-  <si>
-    <t>1.620,00</t>
-  </si>
-  <si>
-    <t>55.892,28</t>
-  </si>
-  <si>
-    <t>9.133,64</t>
-  </si>
-  <si>
-    <t>9.690,00</t>
-  </si>
-  <si>
-    <t>43.302,00</t>
-  </si>
-  <si>
-    <t>124,65</t>
-  </si>
-  <si>
-    <t>6.734,02</t>
-  </si>
-  <si>
-    <t>10.465,00</t>
-  </si>
-  <si>
-    <t>10.925,00</t>
-  </si>
-  <si>
-    <t>1.056,00</t>
-  </si>
-  <si>
-    <t>1.750,00</t>
-  </si>
-  <si>
-    <t>1.101.156,61</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>48.000,00</t>
-  </si>
-  <si>
-    <t>5.424.959,34</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>38.500,00</t>
-  </si>
-  <si>
-    <t>1.699.749,54</t>
-  </si>
-  <si>
-    <t>172.000,00</t>
-  </si>
-  <si>
-    <t>220.500,00</t>
-  </si>
-  <si>
-    <t>186.000,00</t>
-  </si>
-  <si>
-    <t>316.000,00</t>
-  </si>
-  <si>
-    <t>391.450,00</t>
-  </si>
-  <si>
-    <t>473.900,00</t>
-  </si>
-  <si>
-    <t>233.800,00</t>
-  </si>
-  <si>
-    <t>311.000,00</t>
-  </si>
-  <si>
-    <t>450.000,00</t>
-  </si>
-  <si>
-    <t>181.500,00</t>
-  </si>
-  <si>
-    <t>638.000,00</t>
-  </si>
-  <si>
-    <t>175.170,00</t>
-  </si>
-  <si>
-    <t>77.977,69</t>
-  </si>
-  <si>
-    <t>5.800,00</t>
-  </si>
-  <si>
-    <t>250.370,27</t>
-  </si>
-  <si>
-    <t>89.840,00</t>
-  </si>
-  <si>
-    <t>49.567,24</t>
-  </si>
-  <si>
-    <t>177.500,00</t>
-  </si>
-  <si>
-    <t>350.000,00</t>
-  </si>
-  <si>
-    <t>118.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>1.610.000,00</t>
-  </si>
-  <si>
-    <t>2.398.000,00</t>
-  </si>
-  <si>
-    <t>97.074,25</t>
-  </si>
-  <si>
-    <t>29.500,00</t>
-  </si>
-  <si>
-    <t>684.685,00</t>
-  </si>
-  <si>
-    <t>141.000,00</t>
-  </si>
-  <si>
-    <t>810.000,00</t>
-  </si>
-  <si>
-    <t>890,00</t>
-  </si>
-  <si>
-    <t>1.680,00</t>
-  </si>
-  <si>
-    <t>44.075,00</t>
+    <t>7440.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>31000.00</t>
+  </si>
+  <si>
+    <t>75000.00</t>
+  </si>
+  <si>
+    <t>119800.00</t>
+  </si>
+  <si>
+    <t>37000.00</t>
+  </si>
+  <si>
+    <t>79000.00</t>
+  </si>
+  <si>
+    <t>259000.00</t>
+  </si>
+  <si>
+    <t>41000.00</t>
+  </si>
+  <si>
+    <t>85120.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>1182276.48</t>
+  </si>
+  <si>
+    <t>440.00</t>
+  </si>
+  <si>
+    <t>104028.00</t>
+  </si>
+  <si>
+    <t>14400.00</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>572.00</t>
+  </si>
+  <si>
+    <t>19660.00</t>
+  </si>
+  <si>
+    <t>742013.82</t>
+  </si>
+  <si>
+    <t>1180202.83</t>
+  </si>
+  <si>
+    <t>26770.00</t>
+  </si>
+  <si>
+    <t>40614.68</t>
+  </si>
+  <si>
+    <t>224441.30</t>
+  </si>
+  <si>
+    <t>11040.00</t>
+  </si>
+  <si>
+    <t>229892.80</t>
+  </si>
+  <si>
+    <t>7544.20</t>
+  </si>
+  <si>
+    <t>2640.00</t>
+  </si>
+  <si>
+    <t>46837.96</t>
+  </si>
+  <si>
+    <t>6300.00</t>
+  </si>
+  <si>
+    <t>5162.80</t>
+  </si>
+  <si>
+    <t>51992.08</t>
+  </si>
+  <si>
+    <t>735.00</t>
+  </si>
+  <si>
+    <t>83505.02</t>
+  </si>
+  <si>
+    <t>39060.00</t>
+  </si>
+  <si>
+    <t>21747.00</t>
+  </si>
+  <si>
+    <t>35930.00</t>
+  </si>
+  <si>
+    <t>1345.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>6580.00</t>
+  </si>
+  <si>
+    <t>19000.00</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>165560.00</t>
+  </si>
+  <si>
+    <t>43.72</t>
+  </si>
+  <si>
+    <t>181855.01</t>
+  </si>
+  <si>
+    <t>45638.19</t>
+  </si>
+  <si>
+    <t>1320.00</t>
+  </si>
+  <si>
+    <t>12149.00</t>
+  </si>
+  <si>
+    <t>10111.98</t>
+  </si>
+  <si>
+    <t>2292.00</t>
+  </si>
+  <si>
+    <t>1912725.00</t>
+  </si>
+  <si>
+    <t>1143.36</t>
+  </si>
+  <si>
+    <t>5950.00</t>
+  </si>
+  <si>
+    <t>239817.97</t>
+  </si>
+  <si>
+    <t>2280.00</t>
+  </si>
+  <si>
+    <t>3250.00</t>
+  </si>
+  <si>
+    <t>22522.35</t>
+  </si>
+  <si>
+    <t>10400.00</t>
+  </si>
+  <si>
+    <t>3005.20</t>
+  </si>
+  <si>
+    <t>6920.00</t>
+  </si>
+  <si>
+    <t>520.00</t>
+  </si>
+  <si>
+    <t>7860.00</t>
+  </si>
+  <si>
+    <t>10345.50</t>
+  </si>
+  <si>
+    <t>345.00</t>
+  </si>
+  <si>
+    <t>23147.93</t>
+  </si>
+  <si>
+    <t>327.22</t>
+  </si>
+  <si>
+    <t>11100.00</t>
+  </si>
+  <si>
+    <t>276942.98</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>2540.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>625.00</t>
+  </si>
+  <si>
+    <t>13176.52</t>
+  </si>
+  <si>
+    <t>11228.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>11720.00</t>
+  </si>
+  <si>
+    <t>44641.36</t>
+  </si>
+  <si>
+    <t>25400.00</t>
+  </si>
+  <si>
+    <t>640940.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>27500.00</t>
+  </si>
+  <si>
+    <t>18750.00</t>
+  </si>
+  <si>
+    <t>9800.00</t>
+  </si>
+  <si>
+    <t>23644.00</t>
+  </si>
+  <si>
+    <t>64750.00</t>
+  </si>
+  <si>
+    <t>1783.72</t>
+  </si>
+  <si>
+    <t>13377.00</t>
+  </si>
+  <si>
+    <t>1142.20</t>
+  </si>
+  <si>
+    <t>1907.02</t>
+  </si>
+  <si>
+    <t>995.00</t>
+  </si>
+  <si>
+    <t>9030.00</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>46610.00</t>
+  </si>
+  <si>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>12100.00</t>
+  </si>
+  <si>
+    <t>11700.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>48030.00</t>
+  </si>
+  <si>
+    <t>790.00</t>
+  </si>
+  <si>
+    <t>197178.60</t>
+  </si>
+  <si>
+    <t>529000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>6165.00</t>
+  </si>
+  <si>
+    <t>8530.00</t>
+  </si>
+  <si>
+    <t>1033.05</t>
+  </si>
+  <si>
+    <t>4194.00</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>35421.08</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>1310.00</t>
+  </si>
+  <si>
+    <t>11880.00</t>
+  </si>
+  <si>
+    <t>9350.00</t>
+  </si>
+  <si>
+    <t>8940.00</t>
+  </si>
+  <si>
+    <t>4062.00</t>
+  </si>
+  <si>
+    <t>1380.00</t>
+  </si>
+  <si>
+    <t>13443.00</t>
+  </si>
+  <si>
+    <t>6100.00</t>
+  </si>
+  <si>
+    <t>4033.00</t>
+  </si>
+  <si>
+    <t>54382.71</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>915.00</t>
+  </si>
+  <si>
+    <t>680.00</t>
+  </si>
+  <si>
+    <t>9760.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>2860.00</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>6056.00</t>
+  </si>
+  <si>
+    <t>10850.00</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>12080.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>10200.00</t>
+  </si>
+  <si>
+    <t>10.87</t>
+  </si>
+  <si>
+    <t>5080.00</t>
+  </si>
+  <si>
+    <t>44056.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>54000.00</t>
+  </si>
+  <si>
+    <t>27000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>81112.00</t>
+  </si>
+  <si>
+    <t>31200.00</t>
+  </si>
+  <si>
+    <t>51000.00</t>
+  </si>
+  <si>
+    <t>7078.04</t>
+  </si>
+  <si>
+    <t>3491.20</t>
+  </si>
+  <si>
+    <t>8328.10</t>
+  </si>
+  <si>
+    <t>27374.00</t>
+  </si>
+  <si>
+    <t>8100.04</t>
+  </si>
+  <si>
+    <t>3128.00</t>
+  </si>
+  <si>
+    <t>24562.30</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>22977.40</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>50576.71</t>
+  </si>
+  <si>
+    <t>4860.00</t>
+  </si>
+  <si>
+    <t>15897.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>13900.00</t>
+  </si>
+  <si>
+    <t>28592.00</t>
+  </si>
+  <si>
+    <t>4600.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>16550.00</t>
+  </si>
+  <si>
+    <t>17280.00</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>10131.00</t>
+  </si>
+  <si>
+    <t>47030.00</t>
+  </si>
+  <si>
+    <t>21644.00</t>
+  </si>
+  <si>
+    <t>1367.50</t>
+  </si>
+  <si>
+    <t>17711.50</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>5232.42</t>
+  </si>
+  <si>
+    <t>18401.94</t>
+  </si>
+  <si>
+    <t>1423.30</t>
+  </si>
+  <si>
+    <t>1620.00</t>
+  </si>
+  <si>
+    <t>55892.28</t>
+  </si>
+  <si>
+    <t>9133.64</t>
+  </si>
+  <si>
+    <t>9690.00</t>
+  </si>
+  <si>
+    <t>43302.00</t>
+  </si>
+  <si>
+    <t>124.65</t>
+  </si>
+  <si>
+    <t>6734.02</t>
+  </si>
+  <si>
+    <t>10465.00</t>
+  </si>
+  <si>
+    <t>10925.00</t>
+  </si>
+  <si>
+    <t>1056.00</t>
+  </si>
+  <si>
+    <t>1750.00</t>
+  </si>
+  <si>
+    <t>1101156.61</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>48000.00</t>
+  </si>
+  <si>
+    <t>5424959.34</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>38500.00</t>
+  </si>
+  <si>
+    <t>1699749.54</t>
+  </si>
+  <si>
+    <t>172000.00</t>
+  </si>
+  <si>
+    <t>220500.00</t>
+  </si>
+  <si>
+    <t>186000.00</t>
+  </si>
+  <si>
+    <t>316000.00</t>
+  </si>
+  <si>
+    <t>391450.00</t>
+  </si>
+  <si>
+    <t>473900.00</t>
+  </si>
+  <si>
+    <t>233800.00</t>
+  </si>
+  <si>
+    <t>311000.00</t>
+  </si>
+  <si>
+    <t>450000.00</t>
+  </si>
+  <si>
+    <t>181500.00</t>
+  </si>
+  <si>
+    <t>638000.00</t>
+  </si>
+  <si>
+    <t>175170.00</t>
+  </si>
+  <si>
+    <t>77977.69</t>
+  </si>
+  <si>
+    <t>5800.00</t>
+  </si>
+  <si>
+    <t>250370.27</t>
+  </si>
+  <si>
+    <t>89840.00</t>
+  </si>
+  <si>
+    <t>49567.24</t>
+  </si>
+  <si>
+    <t>177500.00</t>
+  </si>
+  <si>
+    <t>350000.00</t>
+  </si>
+  <si>
+    <t>118000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>1610000.00</t>
+  </si>
+  <si>
+    <t>2398000.00</t>
+  </si>
+  <si>
+    <t>97074.25</t>
+  </si>
+  <si>
+    <t>29500.00</t>
+  </si>
+  <si>
+    <t>684685.00</t>
+  </si>
+  <si>
+    <t>141000.00</t>
+  </si>
+  <si>
+    <t>810000.00</t>
+  </si>
+  <si>
+    <t>890.00</t>
+  </si>
+  <si>
+    <t>1680.00</t>
+  </si>
+  <si>
+    <t>44075.00</t>
   </si>
 </sst>
 </file>
